--- a/bots/crawl_ch/output/clothes_2022-07-14.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,24 +531,24 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6365819005</t>
+          <t>3305484006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42</t>
+          <t>Naturaline Damen Slip schwarz L</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-40-42/p/6365819005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-l/p/3305484006</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -572,34 +572,34 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42 8.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip schwarz L 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6365980012</t>
+          <t>6365819005</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-40-42/p/6365819005</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -628,29 +628,29 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6031467010</t>
+          <t>6365980012</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -674,139 +674,139 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6866452</t>
+          <t>6031467010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6075745012</t>
+          <t>6866452</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
+          <t>Selenacare Menstruationsunterwäsche M</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -859,24 +859,24 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6031467006</t>
+          <t>3305289015</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
+          <t>Naturaline Herren Slip weiss L</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -900,173 +900,171 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6866483</t>
+          <t>6031467006</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tena</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6075745013</t>
+          <t>6866483</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  8.5 - 9</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-85-9/p/6075745013</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Tena</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3875554009</t>
+          <t>6075745013</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss L</t>
+          <t>Avela Strumpfhose Madame Noir  8.5 - 9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-l/p/3875554009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-85-9/p/6075745013</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1075,34 +1073,34 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Naturaline Büstier weiss L 14.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Noir  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3305289015</t>
+          <t>6075749001</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L</t>
+          <t>Avela Strumpfhose Top Size Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-11-12/p/6075749001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1112,12 +1110,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1126,34 +1124,34 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Hasel  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3305289016</t>
+          <t>3875554009</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss XL</t>
+          <t>Naturaline Büstier weiss L</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-xl/p/3305289016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-weiss-l/p/3875554009</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1161,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1170,7 +1168,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1184,44 +1182,46 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss XL 9.95 Schweizer Franken</t>
+          <t>Naturaline Büstier weiss L 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6075749001</t>
+          <t>3305289016</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  11 - 12</t>
+          <t>Naturaline Herren Slip weiss XL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-11-12/p/6075749001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-xl/p/3305289016</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1230,105 +1230,87 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss XL 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6077158004</t>
+          <t>3305779007</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Hasel One Size</t>
+          <t>Naturaline Damen Panty S weiss</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-hasel-one-size/p/6077158004</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2.48/1ST</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Hasel One Size 4.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6077154004</t>
+          <t>6077158004</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Natural One Size</t>
+          <t>Avela Söckchen Ideal Hasel One Size</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-natural-one-size/p/6077154004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-hasel-one-size/p/6077158004</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1347,12 +1329,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.48/1ST</t>
+          <t>2.48/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1362,7 +1344,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1377,208 +1359,228 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Natural One Size 2.95 Schweizer Franken</t>
+          <t>Avela Söckchen Ideal Hasel One Size 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5796044003</t>
+          <t>6077154004</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Taschenschirm türkis gepunktet</t>
+          <t>Avela Söckchen Pure Natural One Size</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-natural-one-size/p/6077154004</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Avela</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
+          <t>Avela Söckchen Pure Natural One Size 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6866484</t>
+          <t>5796044003</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip L</t>
+          <t>Taschenschirm türkis gepunktet</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-l/p/6866484</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-tuerkis-gepunktet/p/5796044003</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Tena</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip L 34.95 Schweizer Franken</t>
+          <t>Taschenschirm türkis gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4091029003</t>
+          <t>6866484</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 35 - 38</t>
+          <t>Tena Silhouette waschbarer Inko-Slip L</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-35-38/p/4091029003</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-l/p/6866484</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tena</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>34.95/1ST</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 35 - 38 5.50 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip L 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4091029004</t>
+          <t>4091029003</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 39 - 41</t>
+          <t>Avela Socken Cotton Euro 35 - 38</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-39-41/p/4091029004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-35-38/p/4091029003</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1601,37 +1603,35 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Euro 39 - 41 5.50 Schweizer Franken</t>
+          <t>Avela Socken Cotton Euro 35 - 38 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4091029007</t>
+          <t>4091029004</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 35 - 38</t>
+          <t>Avela Socken Cotton Euro 39 - 41</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-35-38/p/4091029007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-euro-39-41/p/4091029004</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1654,37 +1654,37 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 35 - 38 5.50 Schweizer Franken</t>
+          <t>Avela Socken Cotton Euro 39 - 41 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4091029008</t>
+          <t>4091029007</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 39 - 41</t>
+          <t>Avela Socken Cotton Noir 35 - 38</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-39-41/p/4091029008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-35-38/p/4091029007</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
         <v>2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1707,70 +1707,52 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Avela Socken Cotton Noir 39 - 41 5.50 Schweizer Franken</t>
+          <t>Avela Socken Cotton Noir 35 - 38 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6077154003</t>
+          <t>4091029008</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Hasel One Size</t>
+          <t>Avela Socken Cotton Noir 39 - 41</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-hasel-one-size/p/6077154003</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-socken-cotton-noir-39-41/p/4091029008</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1.48/1ST</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
@@ -1778,37 +1760,39 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Hasel One Size 2.95 Schweizer Franken</t>
+          <t>Avela Socken Cotton Noir 39 - 41 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6075681007</t>
+          <t>6077154003</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5</t>
+          <t>Avela Söckchen Pure Hasel One Size</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-10-105/p/6075681007</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-hasel-one-size/p/6077154003</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1817,43 +1801,59 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Söckchen Pure Hasel One Size 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6075681008</t>
+          <t>6075681007</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-11-12/p/6075681008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-10-105/p/6075681007</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1884,35 +1884,37 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  10 - 10.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6075681005</t>
+          <t>6075681008</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-85-9/p/6075681005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-11-12/p/6075681008</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1935,29 +1937,29 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  11 - 12 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6075681006</t>
+          <t>6075681005</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  9.5</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-95/p/6075681006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-85-9/p/6075681005</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1986,37 +1988,35 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Hasel  9.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  8.5 - 9 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6075681011</t>
+          <t>6075681006</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  9.5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-10-105/p/6075681011</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-hasel-95/p/6075681006</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2039,35 +2039,37 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Hasel  9.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6075681012</t>
+          <t>6075681011</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-11-12/p/6075681012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-10-105/p/6075681011</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2090,29 +2092,29 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  10 - 10.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6075681009</t>
+          <t>6075681012</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-85-9/p/6075681009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-11-12/p/6075681012</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2141,29 +2143,29 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  11 - 12 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6075681010</t>
+          <t>6075681009</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  9.5</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-95/p/6075681010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-85-9/p/6075681009</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2192,29 +2194,29 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Natural  9.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  8.5 - 9 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6075681015</t>
+          <t>6075681010</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  9.5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-10-105/p/6075681015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-natural-95/p/6075681010</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2243,29 +2245,29 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Natural  9.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6075681016</t>
+          <t>6075681015</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-11-12/p/6075681016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-10-105/p/6075681015</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2294,29 +2296,29 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  10 - 10.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6075681013</t>
+          <t>6075681016</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-85-9/p/6075681013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-11-12/p/6075681016</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2345,37 +2347,35 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  11 - 12 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6075681014</t>
+          <t>6075681013</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  9.5</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-95/p/6075681014</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-85-9/p/6075681013</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2398,35 +2398,37 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Belform Liberty Noir  9.5 6.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  8.5 - 9 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6075745018</t>
+          <t>6075681014</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 9- nomade</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  9.5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-9-nomade/p/6075745018</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-belform-liberty-noir-95/p/6075681014</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2435,7 +2437,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -2449,29 +2451,29 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame 9- nomade 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Belform Liberty Noir  9.5 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6075745008</t>
+          <t>6075745018</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  11 - 12</t>
+          <t>Avela Strumpfhose Madame 9- nomade</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-11-12/p/6075745008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-9-nomade/p/6075745018</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2500,29 +2502,29 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame 9- nomade 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6075745005</t>
+          <t>6075745008</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  8.5 - 9</t>
+          <t>Avela Strumpfhose Madame Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-85-9/p/6075745005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-11-12/p/6075745008</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2551,29 +2553,29 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>6075745005</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Avela Strumpfhose Madame Hasel  8.5 - 9</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-85-9/p/6075745005</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2602,29 +2604,29 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6075745016</t>
+          <t>6075745006</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  11 - 12</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-11-12/p/6075745016</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2653,12 +2655,12 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2711,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2762,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2813,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -2862,7 +2864,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2915,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2968,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3019,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3070,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3121,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3172,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3223,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
@@ -3272,32 +3274,30 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3305779007</t>
+          <t>3305484008</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss</t>
+          <t>Naturaline Damen Slip weiss M</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-weiss/p/3305779007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3320,29 +3320,29 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S weiss 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3305484008</t>
+          <t>4322745004</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M</t>
+          <t>Naturaline Damen String schwarz L</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-m/p/3305484008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3371,29 +3371,29 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss M 7.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4322745004</t>
+          <t>4322745002</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L</t>
+          <t>Naturaline Damen String schwarz S</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-l/p/4322745004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3422,29 +3422,29 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4322745002</t>
+          <t>4322745007</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S</t>
+          <t>Naturaline Damen String weiss M</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-schwarz-s/p/4322745002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -3473,29 +3473,29 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Naturaline Damen String schwarz S 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4322745007</t>
+          <t>3450446005</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M</t>
+          <t>Naturaline Herren Shirt schwarz S</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-string-weiss-m/p/4322745007</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -3519,34 +3519,34 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Naturaline Damen String weiss M 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz S 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3450446005</t>
+          <t>3404677005</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S</t>
+          <t>Naturaline Herren Slip schwarz S</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-s/p/3450446005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-s/p/3404677005</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -3570,34 +3570,34 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz S 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip schwarz S 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3404677005</t>
+          <t>3305289014</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz S</t>
+          <t>Naturaline Herren Slip weiss M</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-schwarz-s/p/3404677005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-m/p/3305289014</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -3626,29 +3626,29 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip schwarz S 50% Aktion 7.45 Schweizer Franken statt 14.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss M 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3305289014</t>
+          <t>3305289013</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss M</t>
+          <t>Naturaline Herren Slip weiss S</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-m/p/3305289014</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-s/p/3305289013</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -3677,29 +3677,29 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss M 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss S 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3305289013</t>
+          <t>6365980001</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss S</t>
+          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-s/p/3305289013</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-dunkelgrau-40-42/p/6365980001</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -3723,34 +3723,34 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss S 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6365980001</t>
+          <t>6365980011</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-dunkelgrau-40-42/p/6365980001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-40-42/p/6365980011</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -3779,29 +3779,29 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Dunkelgrau 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6365980011</t>
+          <t>6031467016</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-40-42/p/6365980011</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -3825,34 +3825,34 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6031467016</t>
+          <t>3890690001</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S</t>
+          <t>Portemonnaie schwarz quer klein</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-s/p/6031467016</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -3860,14 +3860,10 @@
       <c r="F65" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -3876,81 +3872,105 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz S 24.95 Schweizer Franken</t>
+          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3890690001</t>
+          <t>6548194</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein</t>
+          <t>Selenacare Menstruationsunterwäsche S</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/portemonnaie/portemonnaie-schwarz-quer-klein/p/3890690001</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6548194</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
         <v>0</v>
       </c>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Selenacare</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>24.50/1ST</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'portemonnaie']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Portemonnaie schwarz quer klein 34.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6548199</t>
+          <t>6866398</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M</t>
+          <t>Selenacare Menstruationsunterwäsche S</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6548199</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3958,11 +3978,9 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>2</v>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4001,184 +4019,136 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6548194</t>
+          <t>5799901002</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S</t>
+          <t>Taschenschirm Alu schwarz</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6548194</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-schwarz/p/5799901002</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
       <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Selenacare</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+          <t>Taschenschirm Alu schwarz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6866398</t>
+          <t>5796044002</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S</t>
+          <t>Taschenschirm fuchsia gepunktet</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6866398</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
         <v>0</v>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Selenacare</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S 24.50 Schweizer Franken</t>
+          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5799901002</t>
+          <t>5796044001</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu schwarz</t>
+          <t>Taschenschirm sand gepunktet</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-schwarz/p/5799901002</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>3</v>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -4192,40 +4162,42 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu schwarz 19.95 Schweizer Franken</t>
+          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5796044002</t>
+          <t>5799902001</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Taschenschirm fuchsia gepunktet</t>
+          <t>Taschenschirm schwarz</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-fuchsia-gepunktet/p/5796044002</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-schwarz/p/5799902001</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -4239,108 +4211,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Taschenschirm fuchsia gepunktet 14.95 Schweizer Franken</t>
+          <t>Taschenschirm schwarz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-14 07:03:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>5796044001</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Taschenschirm sand gepunktet</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-sand-gepunktet/p/5796044001</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Taschenschirm sand gepunktet 14.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>2022-07-14 07:03:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>5799902001</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Taschenschirm schwarz</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-schwarz/p/5799902001</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>19.95</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Taschenschirm schwarz 19.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>2022-07-14 07:03:29</t>
+          <t>2022-07-14 20:59:36</t>
         </is>
       </c>
     </row>
